--- a/UseCaseIScenarij/UnosPodataka.xlsx
+++ b/UseCaseIScenarij/UnosPodataka.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Naziv</t>
   </si>
@@ -80,14 +80,179 @@
     <t>Glavni tok</t>
   </si>
   <si>
-    <t>Pristupanje interfejsu za prijavu</t>
+    <t>Registrovani korisnik:</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pristupanje interfejsu za prijavu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unos imena</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unos prezimena</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unos lozinke naloga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Odabir načina plaćanja (elektronsko ili gotovinsko): ukoliko korisnik odabere elektronsko plaćanje dužan je unijeti broj potrošačke kartice</t>
+    </r>
+  </si>
+  <si>
+    <t>Administrator:</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ukoliko korisnik odabere brisanje naloga (unutar opcije da uredi svoj profil) administrator ima ulogu da odobri taj zahtjev.</t>
+    </r>
+  </si>
+  <si>
+    <t>Proširenja/Alternative</t>
+  </si>
+  <si>
+    <t>Editovanje profila podrazumijeva izmjenu trenutačnih podataka. Unutar toga dostupna je opcija brisanja naloga što biva odobreno od strane administratora ukoliko se korisnik opredijeli za deaktivaciju profila.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +278,30 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -183,6 +372,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -208,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -222,10 +422,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -545,19 +757,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -573,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -581,21 +793,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:2" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -603,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -611,7 +823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -627,17 +839,68 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
